--- a/testdata/ContactSales.xlsx
+++ b/testdata/ContactSales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parthyogesh.ramani\IdeaProjects\AccelarateProjects\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7387DC-18BF-4591-9026-99E07FA6158C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2993BB18-87E3-4F91-8D56-BD0AAAE921EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{1FC9CF3B-407E-4266-A940-6EC982344238}"/>
   </bookViews>
@@ -125,9 +125,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -466,7 +467,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -507,7 +508,7 @@
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>999999999</v>
       </c>
       <c r="D2" t="s">
@@ -531,6 +532,7 @@
     <hyperlink ref="B2" r:id="rId1" xr:uid="{F6876378-982A-4F83-89E9-C6723717A941}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
